--- a/mitigations/Mitigations importance.xlsx
+++ b/mitigations/Mitigations importance.xlsx
@@ -1,37 +1,214 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr/>
-  <workbookProtection/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD440DDC-022C-46B5-807D-5E77C4C98562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <pivotCaches>
+    <pivotCache cacheId="17649" r:id="rId3"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+  <si>
+    <t>Mitigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitigated techniques use count by Threat Actors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitigated techniques use count by Malware </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Techniques mitigated count </t>
+  </si>
+  <si>
+    <t>Privileged Account Management</t>
+  </si>
+  <si>
+    <t>User Account Management</t>
+  </si>
+  <si>
+    <t>Pre-compromise</t>
+  </si>
+  <si>
+    <t>Audit</t>
+  </si>
+  <si>
+    <t>Execution Prevention</t>
+  </si>
+  <si>
+    <t>Network Intrusion Prevention</t>
+  </si>
+  <si>
+    <t>Restrict File and Directory Permissions</t>
+  </si>
+  <si>
+    <t>Disable or Remove Feature or Program</t>
+  </si>
+  <si>
+    <t>Password Policies</t>
+  </si>
+  <si>
+    <t>User Training</t>
+  </si>
+  <si>
+    <t>Network Segmentation</t>
+  </si>
+  <si>
+    <t>Filter Network Traffic</t>
+  </si>
+  <si>
+    <t>Behavior Prevention on Endpoint</t>
+  </si>
+  <si>
+    <t>Operating System Configuration</t>
+  </si>
+  <si>
+    <t>Multi-factor Authentication</t>
+  </si>
+  <si>
+    <t>Update Software</t>
+  </si>
+  <si>
+    <t>Encrypt Sensitive Information</t>
+  </si>
+  <si>
+    <t>Software Configuration</t>
+  </si>
+  <si>
+    <t>Restrict Web-Based Content</t>
+  </si>
+  <si>
+    <t>Code Signing</t>
+  </si>
+  <si>
+    <t>Restrict Registry Permissions</t>
+  </si>
+  <si>
+    <t>Limit Access to Resource Over Network</t>
+  </si>
+  <si>
+    <t>Application Isolation and Sandboxing</t>
+  </si>
+  <si>
+    <t>Active Directory Configuration</t>
+  </si>
+  <si>
+    <t>Antivirus/Antimalware</t>
+  </si>
+  <si>
+    <t>Boot Integrity</t>
+  </si>
+  <si>
+    <t>Exploit Protection</t>
+  </si>
+  <si>
+    <t>User Account Control</t>
+  </si>
+  <si>
+    <t>Data Loss Prevention</t>
+  </si>
+  <si>
+    <t>Data Backup</t>
+  </si>
+  <si>
+    <t>Credential Access Protection</t>
+  </si>
+  <si>
+    <t>Privileged Process Integrity</t>
+  </si>
+  <si>
+    <t>Remote Data Storage</t>
+  </si>
+  <si>
+    <t>Limit Software Installation</t>
+  </si>
+  <si>
+    <t>Vulnerability Scanning</t>
+  </si>
+  <si>
+    <t>Application Developer Guidance</t>
+  </si>
+  <si>
+    <t>Account Use Policies</t>
+  </si>
+  <si>
+    <t>SSL/TLS Inspection</t>
+  </si>
+  <si>
+    <t>Threat Intelligence Program</t>
+  </si>
+  <si>
+    <t>Limit Hardware Installation</t>
+  </si>
+  <si>
+    <t>Restrict Library Loading</t>
+  </si>
+  <si>
+    <t>Do Not Mitigate</t>
+  </si>
+  <si>
+    <t>Environment Variable Permissions</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Techniques mitigated count</t>
+  </si>
+  <si>
+    <t>Mitigated techniques use count by Threat Actors</t>
+  </si>
+  <si>
+    <t>Mitigated techniques use count by Malware</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +223,794 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="44589.96757951389" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="44" xr:uid="{A5990099-58CF-4B77-988C-5ECDAD923AAD}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:E1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Mitigation" numFmtId="0">
+      <sharedItems containsBlank="1" count="44">
+        <s v="Privileged Account Management"/>
+        <s v="Password Policies"/>
+        <s v="User Training"/>
+        <s v="Filter Network Traffic"/>
+        <s v="Encrypt Sensitive Information"/>
+        <s v="Limit Access to Resource Over Network"/>
+        <s v="Disable or Remove Feature or Program"/>
+        <s v="Network Intrusion Prevention"/>
+        <s v="Audit"/>
+        <s v="Operating System Configuration"/>
+        <s v="User Account Control"/>
+        <s v="Restrict File and Directory Permissions"/>
+        <s v="Execution Prevention"/>
+        <s v="User Account Management"/>
+        <s v="Network Segmentation"/>
+        <s v="Multi-factor Authentication"/>
+        <s v="Pre-compromise"/>
+        <s v="Behavior Prevention on Endpoint"/>
+        <s v="Update Software"/>
+        <s v="Code Signing"/>
+        <s v="Restrict Web-Based Content"/>
+        <s v="SSL/TLS Inspection"/>
+        <s v="Privileged Process Integrity"/>
+        <s v="Remote Data Storage"/>
+        <s v="Restrict Registry Permissions"/>
+        <s v="Boot Integrity"/>
+        <s v="Limit Software Installation"/>
+        <s v="Account Use Policies"/>
+        <s v="Active Directory Configuration"/>
+        <s v="Environment Variable Permissions"/>
+        <s v="Antivirus/Antimalware"/>
+        <s v="Application Isolation and Sandboxing"/>
+        <s v="Vulnerability Scanning"/>
+        <s v="Restrict Library Loading"/>
+        <s v="Application Developer Guidance"/>
+        <s v="Data Backup"/>
+        <s v="Software Configuration"/>
+        <s v="Data Loss Prevention"/>
+        <s v="Credential Access Protection"/>
+        <s v="Exploit Protection"/>
+        <s v="Do Not Mitigate"/>
+        <s v="Limit Hardware Installation"/>
+        <s v="Threat Intelligence Program"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Techniques mitigated count" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="103"/>
+    </cacheField>
+    <cacheField name="Mitigated techniques use count by Threat Actors" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="102"/>
+    </cacheField>
+    <cacheField name="Mitigated techniques use count by Malware" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="103"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="44">
+  <r>
+    <x v="0"/>
+    <n v="103"/>
+    <n v="102"/>
+    <n v="103"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="43"/>
+    <n v="42"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="40"/>
+    <n v="40"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="39"/>
+    <n v="39"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="28"/>
+    <n v="28"/>
+    <n v="27"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="55"/>
+    <n v="55"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="58"/>
+    <n v="58"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="67"/>
+    <n v="66"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="36"/>
+    <n v="35"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="9"/>
+    <n v="8"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="56"/>
+    <n v="55"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="63"/>
+    <n v="62"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="82"/>
+    <n v="83"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="39"/>
+    <n v="43"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="36"/>
+    <n v="40"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="75"/>
+    <n v="74"/>
+    <n v="74"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="37"/>
+    <n v="37"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="31"/>
+    <n v="31"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="21"/>
+    <n v="20"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="22"/>
+    <n v="22"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="4"/>
+    <n v="9"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="7"/>
+    <n v="6"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="7"/>
+    <n v="21"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="15"/>
+    <n v="15"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="11"/>
+    <n v="13"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="4"/>
+    <n v="13"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="12"/>
+    <n v="15"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="11"/>
+    <n v="33"/>
+    <n v="36"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="14"/>
+    <n v="15"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="3"/>
+    <n v="10"/>
+    <n v="20"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="5"/>
+    <n v="20"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="9"/>
+    <n v="11"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="24"/>
+    <n v="23"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="9"/>
+    <n v="41"/>
+    <n v="88"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="8"/>
+    <n v="7"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="11"/>
+    <n v="34"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FD1F527B-95EB-4D9E-BC6A-65350A08016A}" name="PivotTable1" cacheId="17649" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:D48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="45">
+        <item x="27"/>
+        <item x="28"/>
+        <item x="30"/>
+        <item x="34"/>
+        <item x="31"/>
+        <item x="8"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="19"/>
+        <item x="38"/>
+        <item x="35"/>
+        <item x="37"/>
+        <item x="6"/>
+        <item x="40"/>
+        <item x="4"/>
+        <item x="29"/>
+        <item x="12"/>
+        <item x="39"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="41"/>
+        <item x="26"/>
+        <item x="15"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="11"/>
+        <item x="33"/>
+        <item x="24"/>
+        <item x="20"/>
+        <item x="36"/>
+        <item x="21"/>
+        <item x="42"/>
+        <item x="18"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="32"/>
+        <item x="43"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="45">
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Mitigated techniques use count by Threat Actors " fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Mitigated techniques use count by Malware " fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Techniques mitigated count " fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="43" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+              <x v="25"/>
+              <x v="26"/>
+              <x v="27"/>
+              <x v="28"/>
+              <x v="29"/>
+              <x v="30"/>
+              <x v="31"/>
+              <x v="32"/>
+              <x v="33"/>
+              <x v="34"/>
+              <x v="35"/>
+              <x v="36"/>
+              <x v="37"/>
+              <x v="38"/>
+              <x v="39"/>
+              <x v="40"/>
+              <x v="41"/>
+              <x v="42"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="0" count="43" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+              <x v="25"/>
+              <x v="26"/>
+              <x v="27"/>
+              <x v="28"/>
+              <x v="29"/>
+              <x v="30"/>
+              <x v="31"/>
+              <x v="32"/>
+              <x v="33"/>
+              <x v="34"/>
+              <x v="35"/>
+              <x v="36"/>
+              <x v="37"/>
+              <x v="38"/>
+              <x v="39"/>
+              <x v="40"/>
+              <x v="41"/>
+              <x v="42"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="0" count="43" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+              <x v="25"/>
+              <x v="26"/>
+              <x v="27"/>
+              <x v="28"/>
+              <x v="29"/>
+              <x v="30"/>
+              <x v="31"/>
+              <x v="32"/>
+              <x v="33"/>
+              <x v="34"/>
+              <x v="35"/>
+              <x v="36"/>
+              <x v="37"/>
+              <x v="38"/>
+              <x v="39"/>
+              <x v="40"/>
+              <x v="41"/>
+              <x v="42"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,855 +1297,1448 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A0BE90-4632-4BB3-8BE0-E799C1E64606}">
+  <dimension ref="A3:D48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3">
+        <v>102</v>
+      </c>
+      <c r="C4" s="3">
+        <v>103</v>
+      </c>
+      <c r="D4" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>83</v>
+      </c>
+      <c r="C5" s="3">
+        <v>94</v>
+      </c>
+      <c r="D5" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3">
+        <v>74</v>
+      </c>
+      <c r="D6" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3">
+        <v>66</v>
+      </c>
+      <c r="C7" s="3">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3">
+        <v>62</v>
+      </c>
+      <c r="C8" s="3">
+        <v>62</v>
+      </c>
+      <c r="D8" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3">
+        <v>58</v>
+      </c>
+      <c r="C9" s="3">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>55</v>
+      </c>
+      <c r="C10" s="3">
+        <v>55</v>
+      </c>
+      <c r="D10" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3">
+        <v>36</v>
+      </c>
+      <c r="D16" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3">
+        <v>40</v>
+      </c>
+      <c r="C18" s="3">
+        <v>38</v>
+      </c>
+      <c r="D18" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3">
+        <v>33</v>
+      </c>
+      <c r="D19" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3">
+        <v>28</v>
+      </c>
+      <c r="C20" s="3">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
+        <v>23</v>
+      </c>
+      <c r="D23" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3">
+        <v>14</v>
+      </c>
+      <c r="D24" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3">
+        <v>18</v>
+      </c>
+      <c r="D26" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3">
+        <v>33</v>
+      </c>
+      <c r="C28" s="3">
+        <v>36</v>
+      </c>
+      <c r="D28" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3">
+        <v>13</v>
+      </c>
+      <c r="C29" s="3">
+        <v>15</v>
+      </c>
+      <c r="D29" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3">
+        <v>34</v>
+      </c>
+      <c r="C30" s="3">
+        <v>17</v>
+      </c>
+      <c r="D30" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3">
+        <v>8</v>
+      </c>
+      <c r="C31" s="3">
+        <v>8</v>
+      </c>
+      <c r="D31" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
+        <v>41</v>
+      </c>
+      <c r="C32" s="3">
+        <v>88</v>
+      </c>
+      <c r="D32" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3">
+        <v>11</v>
+      </c>
+      <c r="C33" s="3">
+        <v>21</v>
+      </c>
+      <c r="D33" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3">
+        <v>21</v>
+      </c>
+      <c r="C36" s="3">
+        <v>34</v>
+      </c>
+      <c r="D36" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3">
+        <v>8</v>
+      </c>
+      <c r="D37" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3">
+        <v>5</v>
+      </c>
+      <c r="D38" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3">
+        <v>20</v>
+      </c>
+      <c r="C39" s="3">
+        <v>26</v>
+      </c>
+      <c r="D39" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="3">
+        <v>13</v>
+      </c>
+      <c r="C40" s="3">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3">
+        <v>9</v>
+      </c>
+      <c r="C41" s="3">
+        <v>48</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3">
+        <v>3</v>
+      </c>
+      <c r="C42" s="3">
+        <v>3</v>
+      </c>
+      <c r="D42" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3">
+        <v>3</v>
+      </c>
+      <c r="D43" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="3">
+        <v>10</v>
+      </c>
+      <c r="C44" s="3">
+        <v>20</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="3">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="3">
+        <v>4</v>
+      </c>
+      <c r="C46" s="3">
+        <v>3</v>
+      </c>
+      <c r="D46" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1265</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1384</v>
+      </c>
+      <c r="D48" s="3">
+        <v>1132</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting pivot="1" sqref="B4:B46">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C4:C46">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="D4:D46">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B1" sqref="B1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mitigation</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Techniques mitigated count</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mitigated techniques use count by Threat Actors</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mitigated techniques use count by Malware</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Privileged Account Management</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
         <v>103</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>102</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>103</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Password Policies</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
         <v>43</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>42</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>43</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>User Training</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
         <v>40</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>40</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>39</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Filter Network Traffic</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
         <v>39</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>39</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>38</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Encrypt Sensitive Information</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
         <v>28</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>28</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>27</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Limit Access to Resource Over Network</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>15</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>14</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Disable or Remove Feature or Program</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
         <v>55</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>55</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>54</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Network Intrusion Prevention</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
         <v>58</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>58</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>57</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Audit</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
         <v>67</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>66</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>66</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Operating System Configuration</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
         <v>36</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>35</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>35</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>User Account Control</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
         <v>9</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>8</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>8</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Restrict File and Directory Permissions</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
         <v>56</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>55</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>55</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Execution Prevention</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
         <v>63</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>62</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>62</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>User Account Management</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
         <v>82</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>83</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>94</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Network Segmentation</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
         <v>39</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>43</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>41</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Multi-factor Authentication</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
         <v>36</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>40</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>38</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Pre-compromise</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
         <v>75</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>74</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>74</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Behavior Prevention on Endpoint</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
         <v>37</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>37</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>36</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Update Software</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
         <v>31</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>31</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>33</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Code Signing</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
         <v>21</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>20</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>23</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Restrict Web-Based Content</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" t="n">
+      <c r="C22">
         <v>22</v>
       </c>
-      <c r="E22" t="n">
+      <c r="D22">
+        <v>22</v>
+      </c>
+      <c r="E22">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>SSL/TLS Inspection</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23">
         <v>4</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>9</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>48</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Privileged Process Integrity</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
         <v>7</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>6</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>7</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Remote Data Storage</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
         <v>7</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>21</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>34</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Restrict Registry Permissions</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
         <v>15</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>15</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>14</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Boot Integrity</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
         <v>11</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>13</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>15</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Limit Software Installation</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
         <v>6</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>7</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>8</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Account Use Policies</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>13</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>10</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Active Directory Configuration</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30">
         <v>12</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>15</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>15</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Environment Variable Permissions</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31">
         <v>2</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>4</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>3</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Antivirus/Antimalware</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32">
         <v>11</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>33</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>36</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Application Isolation and Sandboxing</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33">
         <v>14</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>15</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>18</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Vulnerability Scanning</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
         <v>5</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>4</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>5</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Restrict Library Loading</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35">
         <v>3</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>10</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>20</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Application Developer Guidance</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
         <v>5</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>20</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>26</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Data Backup</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37">
         <v>9</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>11</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>21</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Software Configuration</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38">
         <v>24</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>23</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>23</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Data Loss Prevention</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39">
         <v>9</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>41</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>88</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Credential Access Protection</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40">
         <v>8</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>7</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>7</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Exploit Protection</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41">
         <v>11</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>34</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>17</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Do Not Mitigate</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42">
         <v>2</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>3</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>2</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Limit Hardware Installation</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
         <v>4</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>3</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>3</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Threat Intelligence Program</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44">
         <v>4</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>3</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>3</v>
       </c>
     </row>
